--- a/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
+++ b/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BEBF74-0743-4A22-9D45-EB998C33F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED80DBB-6273-4BFA-A338-FC4B3A774250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,20 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>備註說明</t>
   </si>
@@ -457,12 +466,23 @@
     <t xml:space="preserve">SyndNo = </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>DepartmentCode</t>
+  </si>
+  <si>
+    <t>案件隸屬單位</t>
+  </si>
+  <si>
+    <t>共用代碼檔
+0:非企金單位  
+1:企金推展課</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,6 +545,20 @@
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -637,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +773,18 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1290,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
-        <f t="shared" ref="A11:A37" si="0">A10+1</f>
+        <f t="shared" ref="A11:A38" si="0">A10+1</f>
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -1383,7 +1429,7 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>9</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -1400,45 +1446,48 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="35">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="19">
-        <v>6</v>
-      </c>
-      <c r="G20" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
@@ -1446,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>55</v>
@@ -1465,10 +1514,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>55</v>
@@ -1484,10 +1533,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>55</v>
@@ -1503,10 +1552,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>55</v>
@@ -1518,14 +1567,14 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>55</v>
@@ -1541,10 +1590,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>55</v>
@@ -1554,62 +1603,62 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="19">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="19">
         <v>1</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="29" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>8</v>
-      </c>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="19">
-        <v>32</v>
       </c>
       <c r="G29" s="21"/>
     </row>
@@ -1619,40 +1668,37 @@
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="19">
+        <v>32</v>
+      </c>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>4</v>
       </c>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="25">
-        <v>1</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25" t="s">
-        <v>91</v>
-      </c>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
@@ -1660,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>55</v>
@@ -1682,10 +1728,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>55</v>
@@ -1698,41 +1744,44 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>8</v>
-      </c>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="19">
-        <v>6</v>
       </c>
       <c r="G35" s="21"/>
     </row>
@@ -1742,37 +1791,56 @@
         <v>27</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="19">
+        <v>6</v>
+      </c>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>8</v>
       </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B37" s="27" t="s">
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="19">
         <v>6</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
